--- a/Iteration-2 Data/final_SR_cleaned_file.xlsx
+++ b/Iteration-2 Data/final_SR_cleaned_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prudhvisiddhartha/Desktop/Data-Wrangling-and-Cleaning/Iteration-2 Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD39252A-637C-FE47-84F2-0440243A4737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B9E040-E810-6F4D-BAFB-96ABD739A42A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>FacilityName</t>
   </si>
@@ -38,15 +38,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>SportsPlayed</t>
-  </si>
-  <si>
-    <t>Changerooms</t>
-  </si>
-  <si>
-    <t>FacilityCondition</t>
-  </si>
-  <si>
     <t>Aberfeldie Bowls Club</t>
   </si>
   <si>
@@ -104,51 +95,6 @@
     <t>SUNBURY</t>
   </si>
   <si>
-    <t>Lawn Bowls</t>
-  </si>
-  <si>
-    <t>Hockey</t>
-  </si>
-  <si>
-    <t>Swimming</t>
-  </si>
-  <si>
-    <t>Unisex</t>
-  </si>
-  <si>
-    <t>Female, Male, Umpire/Officials</t>
-  </si>
-  <si>
-    <t>Female, Male</t>
-  </si>
-  <si>
-    <t>Female, Male, Unisex</t>
-  </si>
-  <si>
-    <t>4. Good</t>
-  </si>
-  <si>
-    <t>5. Very Good</t>
-  </si>
-  <si>
-    <t>Australian Rules Football, Cricket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cricket, Australian Rules Football, Tennis (Outdoor) </t>
-  </si>
-  <si>
-    <t>Soccer, Netball, Australian Rules Football, Tennis (Outdoor)</t>
-  </si>
-  <si>
-    <t>Cricket, Lawn Bowls, Australian Rules Football</t>
-  </si>
-  <si>
-    <t>Cricket, Australian Rules Football</t>
-  </si>
-  <si>
-    <t>Tae Kwon Do, Swimming, Fitness / Gymnasium Workouts, Callisthenics</t>
-  </si>
-  <si>
     <t>Cooper,Street</t>
   </si>
   <si>
@@ -249,13 +195,67 @@
   </si>
   <si>
     <t>https://images.app.goo.gl/6V6yBY4fCfPKYbqT7</t>
+  </si>
+  <si>
+    <t>Essendon Bowls Club has a proud history of 130 years. It also has State and National representative players among the ranks. Coaching is provided to both new comers and experienced bowlers. It is suitable for all kind of age groups. The club has great facilities to host events like birthdays and work parties.</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/FTDYJtC5b1MLzHa56</t>
+  </si>
+  <si>
+    <t>Frederick Watcher reserve has something for everyone. It features a couple of ovals,tennis courts,nice playground and a fenced dog park. also has a couple of walking tracks amongst flora. Best spot too park is off Bloomfield road.</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/3t44e4XFjxk6c4X88</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/NpuZmCfnTCqtC5N17</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/eVm6Kt6NGHZpD6F27</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/Kpfdw5Ua8u4jrX5v7</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/8qimAx2dw84fTmoS7</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/r2pACNSpzAuEQ1Kx7</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/ntNfokXd6v7gt5VE9</t>
+  </si>
+  <si>
+    <t>Thomas P Carroll Reserve offers Cricket, Australian Rules Football. It has change rooms for Female, Male, Umpire/Officials. It is in very good condition.</t>
+  </si>
+  <si>
+    <t>Sunbury Aquatic and Leisure Centre is offers multiple features like Tae Kwon Do, Swimming, Fitness / Gymnasium Workouts, Callisthenics. It has change rooms for Male, Female and Unisex. It is in very good condition.</t>
+  </si>
+  <si>
+    <t>Richmond Recreation Centre offers swimming which helps all age groups to improve their health and able be active in their daily life. It has change rooms for both Male and Female. It is in very good condition.</t>
+  </si>
+  <si>
+    <t>Rowley Allan Reserve offers sports like Cricket, Lawn Bowls, Australian Rules Football. Elderly can walk arround the Reserve and make themselves relaxed. It has change rooms for both Male and Female. It is in good condition.</t>
+  </si>
+  <si>
+    <t>JC Mills Reserve offers sports like Hockey.  Elderly can walk arround the Reserve and make themselves relaxed. It has change rooms for both Male and Female. It is in good condition.</t>
+  </si>
+  <si>
+    <t>Greaves Reserve offers sports like Soccer, Netball, Australian Rules Football, Tennis (Outdoor).  Elderly can walk arround the Reserve and make themselves relaxed. It has change rooms for both Male and Female. It is in very good condition.</t>
+  </si>
+  <si>
+    <t>https://images.app.goo.gl/RdYvTxAFKXEf22wX9</t>
+  </si>
+  <si>
+    <t>Essendon Cricket Ground offers sports like Australian Rules Football, Cricket.  Elderly can go there to watch cricket matches and Football matches. It has Unisex change rooms. It is in very good condition.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +279,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -288,7 +293,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -322,12 +327,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -338,11 +376,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -682,33 +723,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="244" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="244" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>66</v>
+    <row r="1" spans="1:9">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -717,432 +756,369 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="32">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>-37.757435999999998</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>144.90859</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="32">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>-37.743690000000001</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>144.89756</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>-37.995399999999997</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>145.22137000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" ht="32">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>-37.752814000000001</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>144.91935000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>-37.751978000000001</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>144.91935000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="48">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>-37.986984999999997</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>145.17481000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>-37.984195</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>145.19757000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="32">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>-37.972185000000003</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>145.21847</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="32">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>-37.994562000000002</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>145.16768999999999</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="32">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>-37.817687999999997</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>145.00237999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="32">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>-37.575549000000002</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>144.72461000000001</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="32">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>-37.995114999999998</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>145.22675000000001</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="3" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" xr:uid="{3B8E5094-F1D1-B440-919A-BA7F74A341DE}"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{3B8E5094-F1D1-B440-919A-BA7F74A341DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
